--- a/testing/arc/output/ARC.xlsx
+++ b/testing/arc/output/ARC.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="96">
   <si>
     <t>#</t>
   </si>
@@ -327,28 +327,6 @@
   <si>
     <t>[
   {
-    "errorCode": "noButtonText",
-    "domElement": "&lt;button class=\"ant-pagination-item-link\" type=\"button\" tabindex=\"-1\" disabled=\"\"&gt;&lt;/button&gt;",
-    "errorDescription": "Error: no button text",
-    "recommendation": "Recommend: add text to the button"
-  },
-  {
-    "errorCode": "noButtonText",
-    "domElement": "&lt;button class=\"ant-pagination-item-link\" type=\"button\" tabindex=\"-1\" disabled=\"\"&gt;&lt;/button&gt;",
-    "errorDescription": "Error: no button text",
-    "recommendation": "Recommend: add text to the button"
-  },
-  {
-    "errorCode": "nonActiveElementInTabOrder",
-    "domElement": "ERR&lt;li title=\"1\" class=\"ant-pagination-item ant-pagination-item-1 ant-pagination-item-active\" tabindex=\"0\"&gt;&lt;/li&gt;",
-    "errorDescription": "Error: tabindex is used on a non-interactive component in a way that puts it in the tab order. Only active element should be in the tab order",
-    "recommendation": "Recommend: Remove the tabindex attribute or set it to '-1', OR define the role of the control."
-  }
-]</t>
-  </si>
-  <si>
-    <t>[
-  {
     "errorCode": "inputNoAccessibleName",
     "domElement": "&lt;input style=\"width:0;height:0;display:flex;overflow:hidden;opacity:0;border:0;padding:0;margin:0\" tabindex=\"0\" value=\"\"&gt;",
     "errorDescription": "Error: no accessible name",
@@ -689,28 +667,6 @@
   <si>
     <t>[
   {
-    "errorCode": "nonActiveElementInTabOrder",
-    "domElement": "&lt;li title=\"1\" tabindex=\"0\" class=\"ant-pagination-item ant-pagination-item-1 ant-pagination-item-active\"&gt;&lt;/li&gt;",
-    "errorDescription": "Error: tabindex is used on a non-interactive component in a way that puts it in the tab order. Only active element should be in the tab order",
-    "recommendation": "Recommend: Remove the tabindex attribute or set it to '-1', OR define the role of the control."
-  },
-  {
-    "errorCode": "ariaLabelOnNonInteractiveElement",
-    "domElement": "&lt;i aria-label=\"icon: left\" class=\"anticon anticon-left\"&gt;&lt;/i&gt;",
-    "errorDescription": "Error: aria-label is used on an element which does not allow this attribute",
-    "recommendation": "Recommend: Remove aria-label attribute, and use visually hidden text instead"
-  },
-  {
-    "errorCode": "ariaLabelOnNonInteractiveElement",
-    "domElement": "&lt;i aria-label=\"icon: right\" class=\"anticon anticon-right\"&gt;&lt;/i&gt;",
-    "errorDescription": "Error: aria-label is used on an element which does not allow this attribute",
-    "recommendation": "Recommend: Remove aria-label attribute, and use visually hidden text instead"
-  }
-]</t>
-  </si>
-  <si>
-    <t>[
-  {
     "errorCode": "ariaLabelOnNonInteractiveElement",
     "domElement": "&lt;i aria-label=\"icon: left\" class=\"anticon anticon-left ant-tabs-tab-prev-icon-target\"&gt;&lt;/i&gt;",
     "errorDescription": "Error: aria-label is used on an element which does not allow this attribute",
@@ -1245,7 +1201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1253,10 +1209,6 @@
     </font>
     <font>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1309,8 +1261,8 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1326,10 +1278,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -2030,10 +1982,10 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="14"/>
+      <c r="C2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" ht="75.0" customHeight="1">
       <c r="A3" s="1">
@@ -2042,7 +1994,7 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="3">
         <v>0.0</v>
       </c>
       <c r="D3" s="3"/>
@@ -2054,7 +2006,7 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2065,7 +2017,7 @@
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2076,7 +2028,7 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2087,7 +2039,7 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="3">
         <v>0.0</v>
       </c>
       <c r="E7" s="3"/>
@@ -2099,7 +2051,7 @@
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2110,11 +2062,11 @@
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="3">
         <v>1.0</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>81</v>
+      <c r="D9" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -2125,7 +2077,7 @@
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="3">
         <v>0.0</v>
       </c>
       <c r="D10" s="13"/>
@@ -2137,10 +2089,10 @@
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="14"/>
+      <c r="C11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" ht="75.0" customHeight="1">
       <c r="A12" s="1">
@@ -2149,7 +2101,7 @@
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="3">
         <v>0.0</v>
       </c>
       <c r="D12" s="2"/>
@@ -2162,7 +2114,7 @@
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="2"/>
@@ -2175,11 +2127,11 @@
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="3">
         <v>1.0</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>82</v>
+      <c r="D14" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" ht="75.0" customHeight="1">
@@ -2189,11 +2141,11 @@
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="3">
         <v>4.0</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>83</v>
+      <c r="D15" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16" ht="75.0" customHeight="1">
@@ -2203,11 +2155,11 @@
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="3">
         <v>1.0</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>84</v>
+      <c r="D16" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17" ht="75.0" customHeight="1">
@@ -2217,7 +2169,7 @@
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="3">
         <v>0.0</v>
       </c>
       <c r="D17" s="3"/>
@@ -2229,10 +2181,10 @@
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D18" s="14"/>
+      <c r="C18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" ht="75.0" customHeight="1">
       <c r="A19" s="1">
@@ -2241,11 +2193,11 @@
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="3">
         <v>2.0</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>85</v>
+      <c r="D19" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -2256,10 +2208,10 @@
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" ht="75.0" customHeight="1">
@@ -2269,8 +2221,8 @@
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="14">
-        <v>0.0</v>
+      <c r="C21" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D21" s="13"/>
     </row>
@@ -2281,7 +2233,7 @@
       <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="3">
         <v>0.0</v>
       </c>
       <c r="D22" s="3"/>
@@ -2293,11 +2245,11 @@
       <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="3">
         <v>10.0</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>86</v>
+      <c r="D23" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -2308,7 +2260,7 @@
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="3">
         <v>0.0</v>
       </c>
       <c r="D24" s="2"/>
@@ -2320,11 +2272,11 @@
       <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="3">
         <v>4.0</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>87</v>
+      <c r="D25" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="E25" s="3"/>
     </row>
@@ -2335,7 +2287,7 @@
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="2"/>
@@ -2348,7 +2300,7 @@
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="2"/>
@@ -2438,7 +2390,7 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="3">
         <v>0.0</v>
       </c>
       <c r="D2" s="3"/>
@@ -2450,7 +2402,7 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="3">
         <v>0.0</v>
       </c>
       <c r="D3" s="3"/>
@@ -2462,11 +2414,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="3">
         <v>2.0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" ht="75.0" customHeight="1">
@@ -2476,7 +2428,7 @@
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2487,7 +2439,7 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2498,11 +2450,11 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="3">
         <v>1.0</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2513,7 +2465,7 @@
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2524,11 +2476,11 @@
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="3">
         <v>2.0</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>90</v>
+      <c r="D9" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -2539,11 +2491,11 @@
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="3">
         <v>1.0</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>91</v>
+      <c r="D10" s="13" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" ht="75.0" customHeight="1">
@@ -2553,7 +2505,7 @@
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="3">
         <v>0.0</v>
       </c>
       <c r="D11" s="3"/>
@@ -2565,7 +2517,7 @@
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="2"/>
@@ -2578,7 +2530,7 @@
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="2"/>
@@ -2591,10 +2543,10 @@
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="14"/>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" ht="75.0" customHeight="1">
       <c r="A15" s="1">
@@ -2603,10 +2555,10 @@
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="14"/>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" ht="75.0" customHeight="1">
       <c r="A16" s="1">
@@ -2615,10 +2567,10 @@
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="14"/>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" ht="75.0" customHeight="1">
       <c r="A17" s="1">
@@ -2627,7 +2579,7 @@
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="3">
         <v>0.0</v>
       </c>
       <c r="D17" s="3"/>
@@ -2639,7 +2591,7 @@
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="3"/>
@@ -2651,10 +2603,10 @@
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="14"/>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" ht="75.0" customHeight="1">
@@ -2664,7 +2616,7 @@
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="3">
         <v>0.0</v>
       </c>
       <c r="D20" s="3"/>
@@ -2677,8 +2629,8 @@
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="14">
-        <v>0.0</v>
+      <c r="C21" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D21" s="13"/>
     </row>
@@ -2689,7 +2641,7 @@
       <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="3">
         <v>0.0</v>
       </c>
       <c r="D22" s="3"/>
@@ -2701,10 +2653,10 @@
       <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="14"/>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" ht="75.0" customHeight="1">
@@ -2714,7 +2666,7 @@
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="3">
         <v>0.0</v>
       </c>
       <c r="D24" s="2"/>
@@ -2726,10 +2678,10 @@
       <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="14"/>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" ht="75.0" customHeight="1">
@@ -2739,7 +2691,7 @@
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="2"/>
@@ -2752,7 +2704,7 @@
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="2"/>
@@ -2842,7 +2794,7 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="3">
         <v>0.0</v>
       </c>
       <c r="D2" s="3"/>
@@ -2854,7 +2806,7 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3"/>
@@ -2866,7 +2818,7 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2877,7 +2829,7 @@
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2888,7 +2840,7 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2899,7 +2851,7 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3"/>
@@ -2911,7 +2863,7 @@
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2922,10 +2874,10 @@
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="14"/>
+      <c r="C9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="75.0" customHeight="1">
@@ -2935,10 +2887,10 @@
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D10" s="15"/>
+      <c r="C10" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" ht="75.0" customHeight="1">
       <c r="A11" s="1">
@@ -2947,7 +2899,7 @@
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="3">
         <v>0.0</v>
       </c>
       <c r="D11" s="3"/>
@@ -2959,7 +2911,7 @@
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="2"/>
@@ -2972,7 +2924,7 @@
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="2"/>
@@ -2985,7 +2937,7 @@
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="3">
         <v>0.0</v>
       </c>
       <c r="D14" s="3"/>
@@ -2997,7 +2949,7 @@
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3"/>
@@ -3009,7 +2961,7 @@
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="3"/>
@@ -3021,7 +2973,7 @@
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="3">
         <v>0.0</v>
       </c>
       <c r="D17" s="3"/>
@@ -3033,11 +2985,11 @@
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="3">
         <v>1.0</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>92</v>
+      <c r="D18" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="19" ht="75.0" customHeight="1">
@@ -3047,7 +2999,7 @@
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="3"/>
@@ -3060,7 +3012,7 @@
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="3"/>
@@ -3073,8 +3025,8 @@
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="14">
-        <v>0.0</v>
+      <c r="C21" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D21" s="13"/>
     </row>
@@ -3085,7 +3037,7 @@
       <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="3">
         <v>0.0</v>
       </c>
       <c r="D22" s="3"/>
@@ -3097,7 +3049,7 @@
       <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="3">
         <v>0.0</v>
       </c>
       <c r="D23" s="3"/>
@@ -3110,7 +3062,7 @@
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="3">
         <v>0.0</v>
       </c>
       <c r="D24" s="2"/>
@@ -3122,11 +3074,11 @@
       <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="3">
         <v>3.0</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>93</v>
+      <c r="D25" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E25" s="3"/>
     </row>
@@ -3137,7 +3089,7 @@
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="2"/>
@@ -3150,7 +3102,7 @@
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="2"/>
@@ -3240,7 +3192,7 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="3">
         <v>0.0</v>
       </c>
       <c r="D2" s="3"/>
@@ -3252,7 +3204,7 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="3">
         <v>0.0</v>
       </c>
       <c r="D3" s="3"/>
@@ -3264,7 +3216,7 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -3275,7 +3227,7 @@
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -3286,11 +3238,11 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="3">
         <v>1.0</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" ht="75.0" customHeight="1">
@@ -3300,7 +3252,7 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3"/>
@@ -3312,7 +3264,7 @@
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -3323,10 +3275,10 @@
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="3">
         <v>1.0</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="3"/>
@@ -3338,7 +3290,7 @@
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="3">
         <v>0.0</v>
       </c>
       <c r="D10" s="13"/>
@@ -3350,7 +3302,7 @@
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="3">
         <v>0.0</v>
       </c>
       <c r="D11" s="3"/>
@@ -3362,7 +3314,7 @@
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="2"/>
@@ -3375,7 +3327,7 @@
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="2"/>
@@ -3388,7 +3340,7 @@
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="3">
         <v>0.0</v>
       </c>
       <c r="D14" s="3"/>
@@ -3400,7 +3352,7 @@
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="3">
         <v>0.0</v>
       </c>
       <c r="D15" s="3"/>
@@ -3412,7 +3364,7 @@
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="3">
         <v>0.0</v>
       </c>
       <c r="D16" s="3"/>
@@ -3424,7 +3376,7 @@
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="3">
         <v>0.0</v>
       </c>
       <c r="D17" s="3"/>
@@ -3436,10 +3388,10 @@
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D18" s="14"/>
+      <c r="C18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" ht="75.0" customHeight="1">
       <c r="A19" s="1">
@@ -3448,7 +3400,7 @@
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="3"/>
@@ -3461,7 +3413,7 @@
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="3"/>
@@ -3474,8 +3426,8 @@
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="14">
-        <v>0.0</v>
+      <c r="C21" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D21" s="13"/>
     </row>
@@ -3486,7 +3438,7 @@
       <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="3">
         <v>0.0</v>
       </c>
       <c r="D22" s="3"/>
@@ -3498,7 +3450,7 @@
       <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="3"/>
@@ -3511,11 +3463,11 @@
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="3">
         <v>1.0</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>95</v>
+      <c r="D24" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="25" ht="75.0" customHeight="1">
@@ -3525,10 +3477,10 @@
       <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D25" s="14"/>
+      <c r="C25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" ht="75.0" customHeight="1">
@@ -3538,7 +3490,7 @@
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="2"/>
@@ -3551,7 +3503,7 @@
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="2"/>
@@ -3641,7 +3593,7 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="3"/>
@@ -3653,7 +3605,7 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3"/>
@@ -3665,11 +3617,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="3">
         <v>4.0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" ht="75.0" customHeight="1">
@@ -3679,7 +3631,7 @@
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3690,7 +3642,7 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -3701,7 +3653,7 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3"/>
@@ -3713,7 +3665,7 @@
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -3724,10 +3676,10 @@
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="14"/>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="75.0" customHeight="1">
@@ -3737,11 +3689,11 @@
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="3">
         <v>4.0</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>96</v>
+      <c r="D10" s="13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11" ht="75.0" customHeight="1">
@@ -3751,7 +3703,7 @@
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3"/>
@@ -3763,7 +3715,7 @@
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="2"/>
@@ -3776,7 +3728,7 @@
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="2"/>
@@ -3789,11 +3741,11 @@
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="3">
         <v>2.0</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>97</v>
+      <c r="D14" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="15" ht="75.0" customHeight="1">
@@ -3803,7 +3755,7 @@
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="3">
         <v>0.0</v>
       </c>
       <c r="D15" s="3"/>
@@ -3815,7 +3767,7 @@
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="3">
         <v>0.0</v>
       </c>
       <c r="D16" s="3"/>
@@ -3827,7 +3779,7 @@
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="3">
         <v>0.0</v>
       </c>
       <c r="D17" s="3"/>
@@ -3839,7 +3791,7 @@
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="3">
         <v>0.0</v>
       </c>
       <c r="D18" s="3"/>
@@ -3851,7 +3803,7 @@
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="3">
         <v>0.0</v>
       </c>
       <c r="D19" s="3"/>
@@ -3864,7 +3816,7 @@
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="3"/>
@@ -3877,8 +3829,8 @@
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="14">
-        <v>0.0</v>
+      <c r="C21" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D21" s="13"/>
     </row>
@@ -3889,7 +3841,7 @@
       <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="3">
         <v>0.0</v>
       </c>
       <c r="D22" s="3"/>
@@ -3901,7 +3853,7 @@
       <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="3">
         <v>0.0</v>
       </c>
       <c r="D23" s="3"/>
@@ -3914,10 +3866,10 @@
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D24" s="14"/>
+      <c r="C24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" ht="75.0" customHeight="1">
       <c r="A25" s="1">
@@ -3926,7 +3878,7 @@
       <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="3"/>
@@ -3939,7 +3891,7 @@
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="2"/>
@@ -3952,7 +3904,7 @@
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="2"/>
@@ -4284,8 +4236,8 @@
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="3">
-        <v>0.0</v>
+      <c r="C21" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -4690,12 +4642,10 @@
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="C21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="15"/>
     </row>
     <row r="22" ht="75.0" customHeight="1">
       <c r="A22" s="1">
@@ -4745,7 +4695,7 @@
         <v>1.0</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" s="3"/>
     </row>
@@ -5348,7 +5298,7 @@
         <v>2.0</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" ht="75.0" customHeight="1">
@@ -5400,7 +5350,7 @@
         <v>1.0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" ht="75.0" customHeight="1">
@@ -5484,8 +5434,8 @@
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="3">
-        <v>0.0</v>
+      <c r="C21" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D21" s="13"/>
     </row>
@@ -5512,7 +5462,7 @@
         <v>1.0</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -5724,7 +5674,7 @@
         <v>1.0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" ht="75.0" customHeight="1">
@@ -5738,7 +5688,7 @@
         <v>1.0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -5803,7 +5753,7 @@
         <v>2.0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" ht="75.0" customHeight="1">
@@ -5841,7 +5791,7 @@
         <v>2.0</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="75.0" customHeight="1">
@@ -5889,8 +5839,8 @@
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="3">
-        <v>0.0</v>
+      <c r="C21" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D21" s="13"/>
     </row>
@@ -6058,7 +6008,7 @@
         <v>3.0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="75.0" customHeight="1">
@@ -6072,7 +6022,7 @@
         <v>2.0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="75.0" customHeight="1">
@@ -6086,7 +6036,7 @@
         <v>8.0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" ht="75.0" customHeight="1">
@@ -6145,7 +6095,7 @@
         <v>2.0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -6160,7 +6110,7 @@
         <v>6.0</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" ht="75.0" customHeight="1">
@@ -6174,7 +6124,7 @@
         <v>1.0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" ht="75.0" customHeight="1">
@@ -6214,7 +6164,7 @@
         <v>3.0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" ht="75.0" customHeight="1">
@@ -6228,7 +6178,7 @@
         <v>2.0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" ht="75.0" customHeight="1">
@@ -6242,7 +6192,7 @@
         <v>1.0</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" ht="75.0" customHeight="1">
@@ -6268,7 +6218,7 @@
         <v>1.0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" ht="75.0" customHeight="1">
@@ -6282,7 +6232,7 @@
         <v>2.0</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -6297,7 +6247,7 @@
         <v>2.0</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -6308,12 +6258,10 @@
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>67</v>
-      </c>
+      <c r="C21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="15"/>
     </row>
     <row r="22" ht="75.0" customHeight="1">
       <c r="A22" s="1">
@@ -6326,7 +6274,7 @@
         <v>2.0</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" ht="75.0" customHeight="1">
@@ -6365,7 +6313,7 @@
         <v>2.0</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E25" s="3"/>
     </row>
@@ -6507,7 +6455,7 @@
         <v>3.0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" ht="75.0" customHeight="1">
@@ -6579,7 +6527,7 @@
         <v>3.0</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" ht="75.0" customHeight="1">
@@ -6878,11 +6826,11 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="3">
         <v>1.0</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>71</v>
+      <c r="D2" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" ht="75.0" customHeight="1">
@@ -6892,7 +6840,7 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="3">
         <v>0.0</v>
       </c>
       <c r="D3" s="3"/>
@@ -6904,11 +6852,11 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="3">
         <v>1.0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" ht="75.0" customHeight="1">
@@ -6918,7 +6866,7 @@
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -6929,7 +6877,7 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -6940,11 +6888,11 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="3">
         <v>6.0</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -6955,7 +6903,7 @@
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -6966,11 +6914,11 @@
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="3">
         <v>2.0</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>74</v>
+      <c r="D9" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -6981,10 +6929,10 @@
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D10" s="15"/>
+      <c r="C10" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" ht="75.0" customHeight="1">
       <c r="A11" s="1">
@@ -6993,11 +6941,11 @@
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="3">
         <v>1.0</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>75</v>
+      <c r="D11" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12" ht="75.0" customHeight="1">
@@ -7007,7 +6955,7 @@
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="3">
         <v>0.0</v>
       </c>
       <c r="D12" s="2"/>
@@ -7020,7 +6968,7 @@
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="2"/>
@@ -7033,11 +6981,11 @@
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="3">
         <v>1.0</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>76</v>
+      <c r="D14" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" ht="75.0" customHeight="1">
@@ -7047,7 +6995,7 @@
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="3">
         <v>0.0</v>
       </c>
       <c r="D15" s="3"/>
@@ -7059,7 +7007,7 @@
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="3">
         <v>0.0</v>
       </c>
       <c r="D16" s="3"/>
@@ -7071,7 +7019,7 @@
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="3">
         <v>0.0</v>
       </c>
       <c r="D17" s="3"/>
@@ -7083,11 +7031,11 @@
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="3">
         <v>2.0</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>77</v>
+      <c r="D18" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19" ht="75.0" customHeight="1">
@@ -7097,11 +7045,11 @@
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="3">
         <v>4.0</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>78</v>
+      <c r="D19" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -7112,11 +7060,11 @@
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="3">
         <v>1.0</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>79</v>
+      <c r="D20" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -7127,8 +7075,8 @@
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="14">
-        <v>0.0</v>
+      <c r="C21" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D21" s="13"/>
     </row>
@@ -7139,7 +7087,7 @@
       <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="3">
         <v>0.0</v>
       </c>
       <c r="D22" s="3"/>
@@ -7151,7 +7099,7 @@
       <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="3"/>
@@ -7164,7 +7112,7 @@
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="3">
         <v>0.0</v>
       </c>
       <c r="D24" s="2"/>
@@ -7176,11 +7124,11 @@
       <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="3">
         <v>2.0</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>80</v>
+      <c r="D25" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="E25" s="3"/>
     </row>
@@ -7191,7 +7139,7 @@
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="2"/>
@@ -7204,7 +7152,7 @@
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="2"/>
